--- a/Магистратура.xlsx
+++ b/Магистратура.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>Ср. балл</t>
+          <t xml:space="preserve">Ср.балл </t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -868,28 +868,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>80.7</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>81.7</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1587,7 +1581,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>Ср. балл</t>
+          <t xml:space="preserve">Ср.балл </t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -1913,28 +1907,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G13" t="n">
-        <v>73.2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>77.7</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2632,7 +2620,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>Ср. балл</t>
+          <t xml:space="preserve">Ср.балл </t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -2959,22 +2947,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>77.8</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
